--- a/doc/prezentF.xlsx
+++ b/doc/prezentF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!projects\rtc\rtc_winner\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0DC29E-6A27-457B-BB85-285ACCC89108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6678AF1-61E7-4AC2-9921-FFE121606DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,10 +61,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -118,18 +126,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -411,7 +422,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,15 +444,15 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1"/>
@@ -483,7 +494,12 @@
       <c r="B14" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{873946CC-6038-435F-A61C-1852148476CE}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{E370EC0B-43E5-4F58-858B-CF5105A4B4FC}"/>
+    <hyperlink ref="B3" r:id="rId3" display="https://www.researchgate.net/publication/358326391_A_Woodpecker%27s_Tongue-Inspired_Bendable_and_Extendable_Robot_Manipulator_With_Structural_Stiffness?enrichId=rgreq-0fd666e322bed8ed1ba0ba28d49a6767-XXX&amp;enrichSource=Y292ZXJQYWdlOzM1ODMyNjM5MTtBUzoxMTIxMDE3OTg0NDk1NjE3QDE2NDQyODI5MjM3OTg%3D&amp;el=1_x_2&amp;_esc=publicationCoverPdf" xr:uid="{A7BD26EB-E362-44D5-AE0D-E23A0E2E1197}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
 </worksheet>
 </file>